--- a/case3_Borate/Excel_Files/_bor_hcl_UBK_530.xlsx
+++ b/case3_Borate/Excel_Files/_bor_hcl_UBK_530.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1979230255d33e2/Desktop/MEng/MEng_Code/case3_Borate/Excel_Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case3_Borate\Excel_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{18D96FF0-7823-4A89-BBF7-F2EA42E08B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84A46B05-C62F-459D-BDE8-37254D635823}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13E48D0-684F-4F94-B59B-66E4FBE40029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2335,7 +2335,7 @@
   <dimension ref="A1:W74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2474,13 +2474,11 @@
         <f>J2/K2</f>
         <v>0.2</v>
       </c>
-      <c r="M2" s="9">
-        <f>1.752/1000</f>
-        <v>1.7520000000000001E-3</v>
+      <c r="M2">
+        <v>2.8E-3</v>
       </c>
       <c r="N2" s="9">
-        <f>9.726/1000</f>
-        <v>9.7260000000000003E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="O2" s="8">
         <v>24</v>
@@ -2510,7 +2508,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2537,6 +2535,14 @@
       <c r="H3" s="22">
         <f t="shared" ref="H3:H35" si="2">F3*0.000001</f>
         <v>9.7860000000000002E-5</v>
+      </c>
+      <c r="M3" s="9">
+        <f>1.752/1000</f>
+        <v>1.7520000000000001E-3</v>
+      </c>
+      <c r="N3" s="9">
+        <f>9.726/1000</f>
+        <v>9.7260000000000003E-3</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -4280,15 +4286,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010048117A934AEAC441AF47E945F1AED0C0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7272456f5b53c8ae1c345851aef95d27">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c39f1452-4462-4979-941b-c1317cfd14ce" xmlns:ns3="60199b31-2299-4531-8872-a3eaba744cbd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16ed4d68a838bfbb08a7468a1792fb8f" ns2:_="" ns3:_="">
     <xsd:import namespace="c39f1452-4462-4979-941b-c1317cfd14ce"/>
@@ -4545,15 +4542,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF42137A-B7F2-4A60-BAD9-4B8683F12BBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4570,4 +4568,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/case3_Borate/Excel_Files/_bor_hcl_UBK_530.xlsx
+++ b/case3_Borate/Excel_Files/_bor_hcl_UBK_530.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case3_Borate\Excel_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13E48D0-684F-4F94-B59B-66E4FBE40029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7630383C-CA22-4E15-99F0-43FF5DFD6477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3696" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glucose" sheetId="1" r:id="rId1"/>
@@ -2335,7 +2335,7 @@
   <dimension ref="A1:W74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2474,11 +2474,13 @@
         <f>J2/K2</f>
         <v>0.2</v>
       </c>
-      <c r="M2">
-        <v>2.8E-3</v>
+      <c r="M2" s="9">
+        <f>(1.752/1000)*1.2</f>
+        <v>2.1023999999999999E-3</v>
       </c>
       <c r="N2" s="9">
-        <v>1.7999999999999999E-2</v>
+        <f>(9.726/1000)*1.8</f>
+        <v>1.7506799999999999E-2</v>
       </c>
       <c r="O2" s="8">
         <v>24</v>
@@ -2487,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="Q2" s="10">
-        <v>0.4</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R2" s="1">
         <v>60</v>
@@ -2508,7 +2510,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2535,14 +2537,6 @@
       <c r="H3" s="22">
         <f t="shared" ref="H3:H35" si="2">F3*0.000001</f>
         <v>9.7860000000000002E-5</v>
-      </c>
-      <c r="M3" s="9">
-        <f>1.752/1000</f>
-        <v>1.7520000000000001E-3</v>
-      </c>
-      <c r="N3" s="9">
-        <f>9.726/1000</f>
-        <v>9.7260000000000003E-3</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -4286,6 +4280,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010048117A934AEAC441AF47E945F1AED0C0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7272456f5b53c8ae1c345851aef95d27">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c39f1452-4462-4979-941b-c1317cfd14ce" xmlns:ns3="60199b31-2299-4531-8872-a3eaba744cbd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16ed4d68a838bfbb08a7468a1792fb8f" ns2:_="" ns3:_="">
     <xsd:import namespace="c39f1452-4462-4979-941b-c1317cfd14ce"/>
@@ -4542,16 +4545,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF42137A-B7F2-4A60-BAD9-4B8683F12BBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4568,12 +4570,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>